--- a/results/I3_N5_M2_T15_C200_DepCentral_s3_P5_res.xlsx
+++ b/results/I3_N5_M2_T15_C200_DepCentral_s3_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>190.1757182372891</v>
+        <v>474.7142380949223</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.004999876022338867</v>
+        <v>0.001999855041503906</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26.18571823728903</v>
+        <v>20.71423809492234</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.524964760722089</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.524964760722089</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.99</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,17 @@
         <is>
           <t>alpha</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -656,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -747,7 +758,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -758,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -852,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.069516742254631</v>
+        <v>6.579377207014334</v>
       </c>
     </row>
     <row r="4">
@@ -860,7 +871,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10.11016360191877</v>
+        <v>9.684936737920157</v>
       </c>
     </row>
     <row r="5">
@@ -868,7 +879,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.49124371379367</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -900,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15</v>
+        <v>13.61204927984102</v>
       </c>
     </row>
   </sheetData>
@@ -914,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -942,6 +953,20 @@
         <is>
           <t>y</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +1068,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>54.00999999999964</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1079,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>53.8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1090,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>56.79499999999963</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1076,7 +1101,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>53.26999999999964</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -1087,7 +1112,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>55.17499999999963</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -1098,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>139.7</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13">
@@ -1109,7 +1134,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>150.6599999999994</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
@@ -1120,7 +1145,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>137.9249999999994</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15">
@@ -1131,7 +1156,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>143.1449999999994</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16">
@@ -1142,7 +1167,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>141.7149999999994</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
@@ -1153,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>39.69000000001244</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18">
@@ -1164,7 +1189,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>31.58000000001265</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1200,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>35.6150000000119</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20">
@@ -1186,7 +1211,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>30.72000000000794</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21">
@@ -1197,7 +1222,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>35.41000000000494</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -1208,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>152.9850000000135</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23">
@@ -1219,7 +1244,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>153.2300000000137</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24">
@@ -1230,7 +1255,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>159.1650000000129</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25">
@@ -1241,7 +1266,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>156.630000000009</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26">
@@ -1252,7 +1277,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>161.495000000006</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27">
@@ -1263,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>85.66500000001317</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1299,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>77.02500000001338</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29">
@@ -1285,7 +1310,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>77.97500000001263</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30">
@@ -1296,7 +1321,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>86.04000000000867</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31">
@@ -1307,7 +1332,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>86.91000000000567</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32">
@@ -1318,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>152.9850000000135</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33">
@@ -1329,7 +1354,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>153.2300000000137</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34">
@@ -1340,7 +1365,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>159.1650000000129</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35">
@@ -1351,7 +1376,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>156.630000000009</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36">
@@ -1362,7 +1387,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>161.495000000006</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37">
@@ -1373,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>139.7</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38">
@@ -1384,7 +1409,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>150.6599999999994</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39">
@@ -1395,7 +1420,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>137.9249999999994</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40">
@@ -1406,7 +1431,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>143.1449999999994</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1442,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>141.7149999999994</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1464,7 +1489,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -1475,7 +1500,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -1486,7 +1511,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -1497,7 +1522,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -1508,7 +1533,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -1610,7 +1635,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1621,7 +1646,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1632,7 +1657,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>12.58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1643,7 +1668,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>10.91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1654,7 +1679,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>8.01</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1665,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1676,7 +1701,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1687,7 +1712,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1698,7 +1723,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1709,7 +1734,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1720,7 +1745,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1731,7 +1756,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1742,7 +1767,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1753,7 +1778,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1789,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1888,7 +1913,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1913,6 +1938,61 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
